--- a/Assets/08ExcelTable/CardList.xlsx
+++ b/Assets/08ExcelTable/CardList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\09\unityproject\ColorCardGame\3ColorCardGame\Assets\08ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\Sea\3ColorCardGame\Assets\08ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF8EA9-20C1-4F4A-A07B-B86D6AF9C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925D49A3-8811-4CDF-84B2-B470EDED94B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBC708D4-8CF0-406F-8B83-D7B80266B6EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBC708D4-8CF0-406F-8B83-D7B80266B6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="colorCardData" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -550,7 +545,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,7 +573,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -595,7 +590,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -612,7 +607,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -629,7 +624,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -646,7 +641,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -664,6 +659,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -672,7 +668,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -700,7 +696,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>100</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -717,7 +713,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>101</v>
+        <v>1011</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -734,7 +730,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>102</v>
+        <v>1021</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -751,7 +747,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>103</v>
+        <v>1031</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -768,7 +764,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>104</v>
+        <v>1041</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -785,7 +781,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>105</v>
+        <v>1051</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>

--- a/Assets/08ExcelTable/CardList.xlsx
+++ b/Assets/08ExcelTable/CardList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\Sea\3ColorCardGame\Assets\08ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925D49A3-8811-4CDF-84B2-B470EDED94B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55255281-DE96-492A-9724-97E2B94BA720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBC708D4-8CF0-406F-8B83-D7B80266B6EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBC708D4-8CF0-406F-8B83-D7B80266B6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="colorCardData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,13 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>손 패안에 같은 색의 카드가 있으면 필드에 놓을 수 있습니다</t>
-  </si>
-  <si>
-    <t>손 패안에 같은 색의 카드가 있으면 필드에 놓을 수 있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노랑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,18 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카드를 2장 뽑습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카멜레온</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 카드를 원하는 색의 카드로 취급할 수 있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파랑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,34 +86,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 카드가 패에 있는 경우 계속해서 패를 공개해야 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평화협정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 카드를 필드에 놓습니다. 다른 카드가 필드에 놓이기 전까진 서로 드로우하는 매수가 2장이 됩니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선물준비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자신 손 패 카드 중 하나를 맨 왼쪽에 놓습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>명추리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다음에 상대가 사용할 컬러 카드를 맞춥니다. 맞출 경우, 그 카드 중에 자신의 카드가 포함되어 있으면 자신은 3장 드로우 합니다. 없을 경우에는 그 카드들을 상대의 덱으로 되돌리고 덱을 섞습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>explanation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +147,46 @@
   </si>
   <si>
     <t>CardIcon/cardicon_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드를 &lt;color=#ff0000&gt;2장&lt;/color&gt; 뽑습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 카드를 &lt;color=#ff0000&gt;원하는 색의 카드로&lt;/color&gt; 취급할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 &lt;color=#ff0000&gt;손 패&lt;/color&gt; 카드 중 &lt;color=#ff0000&gt;하나를&lt;/color&gt; &lt;color=#ff0000&gt;맨 왼쪽&lt;/color&gt;에 놓습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손 패안에 &lt;color=#0000ff&gt;같은 색의 카드가 있으면&lt;/color&gt; &lt;color=#ff0000&gt;필드에 놓을 수 있습니다&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손 패안에 &lt;color=#0000ff&gt;같은 색의 카드가 있으면&lt;/color&gt; &lt;color=#ff0001&gt;필드에 놓을 수 있습니다&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>손 패안에 &lt;color=#0000ff&gt;같은 색의 카드가 있으면&lt;/color&gt; &lt;color=#ff0002&gt;필드에 놓을 수 있습니다&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>손 패안에 &lt;color=#0000ff&gt;같은 색의 카드가 있으면&lt;/color&gt; &lt;color=#ff0003&gt;필드에 놓을 수 있습니다&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>손 패안에 &lt;color=#0000ff&gt;같은 색의 카드가 있으면&lt;/color&gt; &lt;color=#ff0004&gt;필드에 놓을 수 있습니다&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>이 카드가 &lt;color=#0000ff&gt;패에 있는 경우&lt;/color&gt;  계속해서 &lt;color=#ff0000&gt;패를 공개&lt;/color&gt;해야 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 카드를 필드에 놓습니다. &lt;color=#0000ff&gt;다른 카드가 필드에 놓이기 전까진&lt;/color&gt;  서로 &lt;color=#ff0000&gt;드로우하는 매수가 2장&lt;/color&gt;이 됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 &lt;color=#0000ff&gt;상대가 사용할 컬러 카드를 맞춥니다.&lt;/color&gt;  맞출 경우, 그 카드 중에 자신의 카드가 포함되어 있으면 자신은 &lt;color=#ff0000&gt;3장 드로우 합니다.&lt;/color&gt; 없을 경우에는 그 카드들을 상대의 덱으로 되돌리고 덱을 섞습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A75A0E-0444-4C95-8E6D-964AA04AFF8C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,10 +574,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -582,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -596,13 +605,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -613,13 +622,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -630,13 +639,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -647,13 +656,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -667,13 +676,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657F1C6-1060-4BF4-A4E0-1AA8498DCF6B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="50.75" customWidth="1"/>
+    <col min="4" max="4" width="86" customWidth="1"/>
     <col min="5" max="5" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -688,10 +697,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -699,16 +708,16 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -716,16 +725,16 @@
         <v>1011</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -733,16 +742,16 @@
         <v>1021</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -750,16 +759,16 @@
         <v>1031</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -767,16 +776,16 @@
         <v>1041</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -784,20 +793,21 @@
         <v>1051</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/08ExcelTable/CardList.xlsx
+++ b/Assets/08ExcelTable/CardList.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\Sea\3ColorCardGame\Assets\08ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\09\unityproject\ColorCardGame\3ColorCardGame\Assets\08ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55255281-DE96-492A-9724-97E2B94BA720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA41E972-5BC1-4395-BC5B-DEE3245F0892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBC708D4-8CF0-406F-8B83-D7B80266B6EE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BBC708D4-8CF0-406F-8B83-D7B80266B6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="colorCardData" sheetId="1" r:id="rId1"/>
     <sheet name="eventCardData" sheetId="2" r:id="rId2"/>
+    <sheet name="cpuDeckData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +188,81 @@
   </si>
   <si>
     <t>다음에 &lt;color=#0000ff&gt;상대가 사용할 컬러 카드를 맞춥니다.&lt;/color&gt;  맞출 경우, 그 카드 중에 자신의 카드가 포함되어 있으면 자신은 &lt;color=#ff0000&gt;3장 드로우 합니다.&lt;/color&gt; 없을 경우에는 그 카드들을 상대의 덱으로 되돌리고 덱을 섞습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeckName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card8</t>
+  </si>
+  <si>
+    <t>card9</t>
+  </si>
+  <si>
+    <t>card10</t>
+  </si>
+  <si>
+    <t>card11</t>
+  </si>
+  <si>
+    <t>card12</t>
+  </si>
+  <si>
+    <t>card13</t>
+  </si>
+  <si>
+    <t>card14</t>
+  </si>
+  <si>
+    <t>card15</t>
+  </si>
+  <si>
+    <t>card16</t>
+  </si>
+  <si>
+    <t>card17</t>
+  </si>
+  <si>
+    <t>card18</t>
+  </si>
+  <si>
+    <t>card19</t>
+  </si>
+  <si>
+    <t>card20</t>
+  </si>
+  <si>
+    <t>StartDeck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +630,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657F1C6-1060-4BF4-A4E0-1AA8498DCF6B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,4 +886,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04EF122-ADED-4CFD-A753-62D6E5493A64}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>1001</v>
+      </c>
+      <c r="R2">
+        <v>1011</v>
+      </c>
+      <c r="S2">
+        <v>1021</v>
+      </c>
+      <c r="T2">
+        <v>1041</v>
+      </c>
+      <c r="U2">
+        <v>1051</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>